--- a/data/long_bre/P18_4-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_4-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-20,84%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 4,12</t>
+          <t>-6,53; 4,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 11,55</t>
+          <t>-2,95; 11,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 7,44</t>
+          <t>-3,13; 7,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 31,46</t>
+          <t>-1,88; 12,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 39,65</t>
+          <t>-13,76; 1,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 32,97</t>
+          <t>-33,73; 32,57</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 38,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; 34,25</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 74,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-41,44; 5,18</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>-11,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-22,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 9,02</t>
+          <t>-3,59; 9,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 1,82</t>
+          <t>-12,54; 1,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 7,51</t>
+          <t>-6,0; 7,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 30,42</t>
+          <t>-21,34; -3,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 4,88</t>
+          <t>-2,9; 13,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 20,08</t>
+          <t>-9,63; 31,36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-26,1; 4,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,01; 19,37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-37,1; -7,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; 36,79</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>-4,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-9,94%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 5,04</t>
+          <t>-9,66; 4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 6,67</t>
+          <t>-5,66; 7,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,04</t>
+          <t>-10,57; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 11,22</t>
+          <t>-0,87; 14,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 33,91</t>
+          <t>-6,89; 8,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 11,53</t>
+          <t>-18,05; 9,06</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-21,68; 41,26</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-27,94; 11,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 60,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-19,95; 35,58</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,36%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 10,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 5,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 35,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 35,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 21,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,91%</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-4,16%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,66%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-18,19%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 10,69</t>
+          <t>-4,82; 6,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 2,46</t>
+          <t>-5,51; 11,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 2,22</t>
+          <t>-8,51; 5,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 34,72</t>
+          <t>-10,0; 7,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 6,3</t>
+          <t>-18,01; 9,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 5,31</t>
+          <t>-24,97; 49,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,36; 37,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-25,41; 21,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-34,14; 39,76</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-48,81; 38,73</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-10,13%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,44%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-11,74%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-16,51%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 7,73</t>
+          <t>-5,84; 9,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 10,63</t>
+          <t>-13,65; 3,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 12,66</t>
+          <t>-12,79; 1,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 19,74</t>
+          <t>-14,68; 2,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 61,92</t>
+          <t>-26,58; 8,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 59,2</t>
+          <t>-14,23; 28,04</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-27,52; 8,18</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,45; 4,44</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 7,44</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-49,75; 25,04</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>-5,94%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>46,13%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 10,73</t>
+          <t>-10,02; 5,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 8,51</t>
+          <t>-4,44; 9,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 19,65</t>
+          <t>-0,05; 13,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 220,74</t>
+          <t>-1,55; 13,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 25,45</t>
+          <t>-3,11; 26,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 125,8</t>
+          <t>-19,54; 12,75</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-18,75; 56,13</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 62,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 55,9</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-10,38; 133,09</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,58%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 10,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 11,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 7,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 31,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 39,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 18,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>-21,79</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-15,6%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>36,91%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-51,68%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 21,2</t>
+          <t>-7,5; 10,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 21,9</t>
+          <t>-24,32; 8,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 10,86</t>
+          <t>-5,59; 18,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 60,1</t>
+          <t>-40,81; -2,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 236,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 50,42</t>
+          <t>-51,96; 209,4</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-44,82; 24,11</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-19,73; 125,01</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-72,37; -8,93</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>15,33</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>-9,66%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,09%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-12,57%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>43,2%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,89</t>
+          <t>-24,56; 10,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 7,06</t>
+          <t>-18,36; 12,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,73</t>
+          <t>-19,59; 8,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 20,42</t>
+          <t>-9,5; 33,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 22,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 23,14</t>
+          <t>-41,91; 30,25</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-38,25; 43,83</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-35,91; 19,14</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-23,32; 147,19</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>57,62%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-5,28%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,92</t>
+          <t>-13,44; 19,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -0,28</t>
+          <t>-2,21; 22,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 2,17</t>
+          <t>-16,16; 12,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 17,66</t>
+          <t>-9,76; 20,89</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-23,1; -0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 5,18</t>
+          <t>-24,73; 60,14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 197,06</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-42,0; 59,49</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-31,8; 151,04</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 5,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 10,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 39,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 21,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-5,91</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,51%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-20,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 3,84</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 6,55</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 5,57</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 4,67</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-12,78; 0,68</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-17,83; 28,64</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; 19,86</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 22,45</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-21,87; 21,9</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-38,29; 2,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-4,66</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-5,7%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-12,69%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 6,55</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; 0,47</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 2,22</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; -0,09</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 9,55</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 19,36</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-21,19; 1,15</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 5,46</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-23,55; -0,47</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-11,42; 24,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-4,0%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>11,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 2,56</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 7,38</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 4,9</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 11,74</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 10,01</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-14,12; 5,73</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 40,21</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-14,28; 18,35</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 46,18</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; 40,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P18_4-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_4-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
